--- a/out/2023-03-04_cb_list.xlsx
+++ b/out/2023-03-04_cb_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15560" activeTab="2"/>
+    <workbookView windowHeight="15560"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -11324,8 +11324,8 @@
   <sheetPr/>
   <dimension ref="A1:AG492"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -13730,7 +13730,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" ht="15" customHeight="1" spans="1:33">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -60263,7 +60263,7 @@
   <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H28" sqref="H28:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
@@ -61084,8 +61084,8 @@
   <sheetPr/>
   <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
